--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC90516-45D6-4F59-8FDE-A024F937B6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D9D6A-1302-4AFF-AD86-33380CA4AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="231">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,6 +846,30 @@
   </si>
   <si>
     <t>다문천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon87</t>
+  </si>
+  <si>
+    <t>weapon88</t>
+  </si>
+  <si>
+    <t>weapon89</t>
+  </si>
+  <si>
+    <t>weapon90</t>
+  </si>
+  <si>
+    <t>바람개비 패스 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아드라검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아수라검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1304,12 +1328,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA88"/>
+  <dimension ref="A1:AA92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7039,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U69" s="7">
         <v>46</v>
@@ -7122,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U70" s="7">
         <v>46</v>
@@ -7205,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U71" s="7">
         <v>46</v>
@@ -7288,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U72" s="7">
         <v>46</v>
@@ -8638,6 +8662,338 @@
       </c>
       <c r="AA88" s="14">
         <v>100000000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>1.2</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>125</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89" s="6">
+        <v>24</v>
+      </c>
+      <c r="U89" s="7">
+        <v>46</v>
+      </c>
+      <c r="V89" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W89" s="7">
+        <v>46</v>
+      </c>
+      <c r="X89" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z89" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA89" s="14">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>1.2</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+      <c r="H90">
+        <v>126</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90" s="6">
+        <v>25</v>
+      </c>
+      <c r="U90" s="7">
+        <v>46</v>
+      </c>
+      <c r="V90" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W90" s="7">
+        <v>46</v>
+      </c>
+      <c r="X90" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z90" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91">
+        <v>24</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>1.2</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="H91">
+        <v>127</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91" s="6">
+        <v>26</v>
+      </c>
+      <c r="U91" s="7">
+        <v>46</v>
+      </c>
+      <c r="V91" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W91" s="7">
+        <v>46</v>
+      </c>
+      <c r="X91" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z91" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA91" s="14">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="8">
+        <v>18</v>
+      </c>
+      <c r="E92" s="8">
+        <v>4</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G92" s="8">
+        <v>100</v>
+      </c>
+      <c r="H92" s="8">
+        <v>96</v>
+      </c>
+      <c r="I92" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>0</v>
+      </c>
+      <c r="L92" s="8">
+        <v>0</v>
+      </c>
+      <c r="M92" s="8">
+        <v>0</v>
+      </c>
+      <c r="N92" s="8">
+        <v>0</v>
+      </c>
+      <c r="O92" s="8">
+        <v>0</v>
+      </c>
+      <c r="P92" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>0</v>
+      </c>
+      <c r="R92" s="8">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8">
+        <v>0</v>
+      </c>
+      <c r="T92" s="9">
+        <v>0</v>
+      </c>
+      <c r="U92" s="10">
+        <v>0</v>
+      </c>
+      <c r="V92" s="7">
+        <v>0</v>
+      </c>
+      <c r="W92" s="10">
+        <v>0</v>
+      </c>
+      <c r="X92" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z92" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA92" s="14">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D9D6A-1302-4AFF-AD86-33380CA4AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA6325-6AFA-4C65-A876-A6F98B36C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="298">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,6 +871,308 @@
   <si>
     <t>아수라검</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcquireDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥
+지옥불꽃에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 보스전
+일직차사에서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥
+강림도령에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계
+신선 개에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계
+신선 고양이에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계
+천둥오리에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계
+근두운에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+혈량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+뇌량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+암량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+화량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+설량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+미량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+흑량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수
+현무에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수
+백호에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수
+주작에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수
+청룡에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+남량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+여량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비나라
+우량에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+지국천왕에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+증장천왕에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+다문천왕에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+광목천왕에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+각성 아수라에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+각성 인드라에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+아드라에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래전 에서
+획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의 산 처치
+8000 이상일때 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신 요괴전
+오로치 보상으로 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">구미호전
+꼬리 9개 획득시 획득 가능 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신 요괴전
+나타 보상으로 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신 요괴전
+인드라 최종 보상으로 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의 산 처치
+6000 이상일때 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 대장간 LV 40만
+이상일때 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검의산 처치
+5000 이상일때 획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람개비 패스
+보상 교환에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡국 패스
+보상 교환에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산
+추천보상으로 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미보유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon91</t>
+  </si>
+  <si>
+    <t>weapon92</t>
+  </si>
+  <si>
+    <t>weapon93</t>
+  </si>
+  <si>
+    <t>weapon94</t>
+  </si>
+  <si>
+    <t>사흉수
+현무에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수
+백호에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수
+주작에서 획득!</t>
+  </si>
+  <si>
+    <t>사흉수
+청룡에서 획득!</t>
+  </si>
+  <si>
+    <t>HasEffectOnly</t>
+  </si>
+  <si>
+    <t>weapon95</t>
+  </si>
+  <si>
+    <t>홍길동검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon96</t>
+  </si>
+  <si>
+    <t>weapon97</t>
+  </si>
+  <si>
+    <t>weapon98</t>
+  </si>
+  <si>
+    <t>도철검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도올검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁기검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일지매단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정곤봉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전우치부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+일지매에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+임꺽정에서 획득!</t>
+  </si>
+  <si>
+    <t>도적단
+전우치에서 획득!</t>
+  </si>
+  <si>
+    <t>도적단
+홍길동에서 획득!</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,6 +1313,12 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1328,12 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB100" sqref="AB100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1358,9 +1664,10 @@
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19.875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1442,8 +1749,11 @@
       <c r="AA1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -1525,8 +1835,11 @@
       <c r="AA2" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1608,8 +1921,11 @@
       <c r="AA3" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1691,8 +2007,11 @@
       <c r="AA4" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1774,8 +2093,11 @@
       <c r="AA5" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB5" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1857,8 +2179,11 @@
       <c r="AA6" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB6" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1940,8 +2265,11 @@
       <c r="AA7" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB7" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2023,8 +2351,11 @@
       <c r="AA8" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2106,8 +2437,11 @@
       <c r="AA9" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2189,8 +2523,11 @@
       <c r="AA10" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB10" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2272,8 +2609,11 @@
       <c r="AA11" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB11" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2355,8 +2695,11 @@
       <c r="AA12" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2438,8 +2781,11 @@
       <c r="AA13" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2521,8 +2867,11 @@
       <c r="AA14" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -2604,8 +2953,11 @@
       <c r="AA15" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB15" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -2687,8 +3039,11 @@
       <c r="AA16" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB16" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -2770,8 +3125,11 @@
       <c r="AA17" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB17" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -2853,8 +3211,11 @@
       <c r="AA18" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB18" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -2936,8 +3297,11 @@
       <c r="AA19" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB19" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3019,8 +3383,11 @@
       <c r="AA20" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB20" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3102,8 +3469,11 @@
       <c r="AA21" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3185,8 +3555,11 @@
       <c r="AA22" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3268,8 +3641,11 @@
       <c r="AA23" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3351,8 +3727,11 @@
       <c r="AA24" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3434,8 +3813,11 @@
       <c r="AA25" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3517,8 +3899,11 @@
       <c r="AA26" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3600,8 +3985,11 @@
       <c r="AA27" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3683,8 +4071,11 @@
       <c r="AA28" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3766,8 +4157,11 @@
       <c r="AA29" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3849,8 +4243,11 @@
       <c r="AA30" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB30" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3932,8 +4329,11 @@
       <c r="AA31" s="14">
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4015,8 +4415,11 @@
       <c r="AA32" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB32" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4098,8 +4501,11 @@
       <c r="AA33" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB33" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4181,8 +4587,11 @@
       <c r="AA34" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB34" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4264,8 +4673,11 @@
       <c r="AA35" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB35" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4347,8 +4759,11 @@
       <c r="AA36" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB36" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4430,8 +4845,11 @@
       <c r="AA37" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB37" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4513,8 +4931,11 @@
       <c r="AA38" s="14">
         <v>5000000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB38" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -4596,8 +5017,11 @@
       <c r="AA39" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB39" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -4679,8 +5103,11 @@
       <c r="AA40" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB40" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -4762,8 +5189,11 @@
       <c r="AA41" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB41" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -4845,8 +5275,11 @@
       <c r="AA42" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB42" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -4928,8 +5361,11 @@
       <c r="AA43" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB43" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -5011,8 +5447,11 @@
       <c r="AA44" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB44" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5094,8 +5533,11 @@
       <c r="AA45" s="14">
         <v>8000000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB45" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5177,8 +5619,11 @@
       <c r="AA46" s="14">
         <v>8000000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB46" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -5260,8 +5705,11 @@
       <c r="AA47" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB47" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -5343,8 +5791,11 @@
       <c r="AA48" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB48" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -5426,8 +5877,11 @@
       <c r="AA49" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB49" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -5509,8 +5963,11 @@
       <c r="AA50" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB50" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -5592,8 +6049,11 @@
       <c r="AA51" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB51" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5675,8 +6135,11 @@
       <c r="AA52" s="14">
         <v>8000000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB52" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5758,8 +6221,11 @@
       <c r="AA53" s="14">
         <v>8000000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB53" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -5841,8 +6307,11 @@
       <c r="AA54" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="55" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB54" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -5924,8 +6393,11 @@
       <c r="AA55" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB55" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -6007,8 +6479,11 @@
       <c r="AA56" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="57" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB56" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -6090,8 +6565,11 @@
       <c r="AA57" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="58" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB57" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -6173,8 +6651,11 @@
       <c r="AA58" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB58" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6256,8 +6737,11 @@
       <c r="AA59" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB59" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6339,8 +6823,11 @@
       <c r="AA60" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB60" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6422,8 +6909,11 @@
       <c r="AA61" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB61" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -6505,8 +6995,11 @@
       <c r="AA62" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="63" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB62" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -6588,8 +7081,11 @@
       <c r="AA63" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="64" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB63" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -6671,8 +7167,11 @@
       <c r="AA64" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB64" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6754,8 +7253,11 @@
       <c r="AA65" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB65" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6837,8 +7339,11 @@
       <c r="AA66" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB66" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6920,8 +7425,11 @@
       <c r="AA67" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB67" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7003,8 +7511,11 @@
       <c r="AA68" s="14">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB68" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7078,7 +7589,7 @@
         <v>15000</v>
       </c>
       <c r="Y69" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="Z69" s="14">
         <v>11</v>
@@ -7086,8 +7597,11 @@
       <c r="AA69" s="14">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB69" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7161,7 +7675,7 @@
         <v>15000</v>
       </c>
       <c r="Y70" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="Z70" s="14">
         <v>11</v>
@@ -7169,8 +7683,11 @@
       <c r="AA70" s="14">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB70" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7244,7 +7761,7 @@
         <v>15000</v>
       </c>
       <c r="Y71" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="Z71" s="14">
         <v>11</v>
@@ -7252,8 +7769,11 @@
       <c r="AA71" s="14">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB71" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7327,7 +7847,7 @@
         <v>15000</v>
       </c>
       <c r="Y72" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="Z72" s="14">
         <v>11</v>
@@ -7335,8 +7855,11 @@
       <c r="AA72" s="14">
         <v>30000000000</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB72" s="15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -7418,8 +7941,11 @@
       <c r="AA73" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB73" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -7501,8 +8027,11 @@
       <c r="AA74" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="75" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB74" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -7584,8 +8113,11 @@
       <c r="AA75" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB75" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -7667,8 +8199,11 @@
       <c r="AA76" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB76" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -7750,8 +8285,11 @@
       <c r="AA77" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB77" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -7833,8 +8371,11 @@
       <c r="AA78" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB78" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7916,8 +8457,11 @@
       <c r="AA79" s="14">
         <v>50000000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB79" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7999,8 +8543,11 @@
       <c r="AA80" s="14">
         <v>50000000000</v>
       </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB80" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -8082,8 +8629,11 @@
       <c r="AA81" s="14">
         <v>50000000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB81" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -8165,8 +8715,11 @@
       <c r="AA82" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="83" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB82" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -8248,8 +8801,11 @@
       <c r="AA83" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB83" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -8331,8 +8887,11 @@
       <c r="AA84" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB84" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -8414,8 +8973,11 @@
       <c r="AA85" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB85" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -8497,8 +9059,11 @@
       <c r="AA86" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB86" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -8580,8 +9145,11 @@
       <c r="AA87" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB87" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -8663,8 +9231,11 @@
       <c r="AA88" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB88" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -8746,8 +9317,11 @@
       <c r="AA89" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB89" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -8829,8 +9403,11 @@
       <c r="AA90" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB90" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -8912,8 +9489,11 @@
       <c r="AA91" s="14">
         <v>100000000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB91" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -8994,6 +9574,697 @@
       </c>
       <c r="AA92" s="14">
         <v>10000</v>
+      </c>
+      <c r="AB92" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>1.2</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>84</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93" s="6">
+        <v>0</v>
+      </c>
+      <c r="U93" s="7">
+        <v>46</v>
+      </c>
+      <c r="V93" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W93" s="7">
+        <v>46</v>
+      </c>
+      <c r="X93" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z93" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>30000000000</v>
+      </c>
+      <c r="AB93" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94">
+        <v>25</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>1.2</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>85</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94" s="6">
+        <v>0</v>
+      </c>
+      <c r="U94" s="7">
+        <v>46</v>
+      </c>
+      <c r="V94" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W94" s="7">
+        <v>46</v>
+      </c>
+      <c r="X94" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z94" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>30000000000</v>
+      </c>
+      <c r="AB94" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>1.2</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>86</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95" s="6">
+        <v>0</v>
+      </c>
+      <c r="U95" s="7">
+        <v>46</v>
+      </c>
+      <c r="V95" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W95" s="7">
+        <v>46</v>
+      </c>
+      <c r="X95" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z95" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA95" s="14">
+        <v>30000000000</v>
+      </c>
+      <c r="AB95" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96">
+        <v>25</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>1.2</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>87</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96" s="6">
+        <v>0</v>
+      </c>
+      <c r="U96" s="7">
+        <v>46</v>
+      </c>
+      <c r="V96" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W96" s="7">
+        <v>46</v>
+      </c>
+      <c r="X96" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z96" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA96" s="14">
+        <v>30000000000</v>
+      </c>
+      <c r="AB96" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97">
+        <v>26</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97">
+        <v>1.2</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97">
+        <v>131</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97" s="6">
+        <v>27</v>
+      </c>
+      <c r="U97" s="7">
+        <v>46</v>
+      </c>
+      <c r="V97" s="7">
+        <v>40000</v>
+      </c>
+      <c r="W97" s="7">
+        <v>46</v>
+      </c>
+      <c r="X97" s="7">
+        <v>40000</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z97" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA97" s="14">
+        <v>200000000000</v>
+      </c>
+      <c r="AB97" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98">
+        <v>26</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98">
+        <v>1.2</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98">
+        <v>132</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98" s="6">
+        <v>28</v>
+      </c>
+      <c r="U98" s="7">
+        <v>46</v>
+      </c>
+      <c r="V98" s="7">
+        <v>40000</v>
+      </c>
+      <c r="W98" s="7">
+        <v>46</v>
+      </c>
+      <c r="X98" s="7">
+        <v>40000</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z98" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA98" s="14">
+        <v>200000000000</v>
+      </c>
+      <c r="AB98" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99">
+        <v>26</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>1.2</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+      <c r="H99">
+        <v>133</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99" s="6">
+        <v>29</v>
+      </c>
+      <c r="U99" s="7">
+        <v>46</v>
+      </c>
+      <c r="V99" s="7">
+        <v>40000</v>
+      </c>
+      <c r="W99" s="7">
+        <v>46</v>
+      </c>
+      <c r="X99" s="7">
+        <v>40000</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z99" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA99" s="14">
+        <v>200000000000</v>
+      </c>
+      <c r="AB99" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>1.2</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+      <c r="H100">
+        <v>134</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100" s="6">
+        <v>30</v>
+      </c>
+      <c r="U100" s="7">
+        <v>46</v>
+      </c>
+      <c r="V100" s="7">
+        <v>40000</v>
+      </c>
+      <c r="W100" s="7">
+        <v>46</v>
+      </c>
+      <c r="X100" s="7">
+        <v>40000</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z100" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA100" s="14">
+        <v>200000000000</v>
+      </c>
+      <c r="AB100" s="15" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA6325-6AFA-4C65-A876-A6F98B36C865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1EC85-61D9-4416-B3FF-A29463994A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1093,24 +1093,6 @@
     <t>weapon94</t>
   </si>
   <si>
-    <t>사흉수
-현무에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사흉수
-백호에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사흉수
-주작에서 획득!</t>
-  </si>
-  <si>
-    <t>사흉수
-청룡에서 획득!</t>
-  </si>
-  <si>
     <t>HasEffectOnly</t>
   </si>
   <si>
@@ -1173,6 +1155,26 @@
   <si>
     <t>도적단
 홍길동에서 획득!</t>
+  </si>
+  <si>
+    <t>사흉스
+도철 에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수
+도올에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수
+혼돈에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수
+궁기에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1638,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB100" sqref="AB100"/>
+    <sheetView tabSelected="1" topLeftCell="I87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB97" sqref="AB97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7589,7 +7591,7 @@
         <v>15000</v>
       </c>
       <c r="Y69" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z69" s="14">
         <v>11</v>
@@ -7675,7 +7677,7 @@
         <v>15000</v>
       </c>
       <c r="Y70" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z70" s="14">
         <v>11</v>
@@ -7761,7 +7763,7 @@
         <v>15000</v>
       </c>
       <c r="Y71" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z71" s="14">
         <v>11</v>
@@ -7847,7 +7849,7 @@
         <v>15000</v>
       </c>
       <c r="Y72" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z72" s="14">
         <v>11</v>
@@ -9587,7 +9589,7 @@
         <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D93">
         <v>25</v>
@@ -9653,7 +9655,7 @@
         <v>15000</v>
       </c>
       <c r="Y93" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z93" s="14">
         <v>11</v>
@@ -9662,7 +9664,7 @@
         <v>30000000000</v>
       </c>
       <c r="AB93" s="15" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -9673,7 +9675,7 @@
         <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D94">
         <v>25</v>
@@ -9739,7 +9741,7 @@
         <v>15000</v>
       </c>
       <c r="Y94" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z94" s="14">
         <v>11</v>
@@ -9748,7 +9750,7 @@
         <v>30000000000</v>
       </c>
       <c r="AB94" s="15" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -9759,7 +9761,7 @@
         <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D95">
         <v>25</v>
@@ -9825,7 +9827,7 @@
         <v>15000</v>
       </c>
       <c r="Y95" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z95" s="14">
         <v>11</v>
@@ -9834,7 +9836,7 @@
         <v>30000000000</v>
       </c>
       <c r="AB95" s="15" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -9845,7 +9847,7 @@
         <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D96">
         <v>25</v>
@@ -9911,7 +9913,7 @@
         <v>15000</v>
       </c>
       <c r="Y96" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Z96" s="14">
         <v>11</v>
@@ -9920,7 +9922,7 @@
         <v>30000000000</v>
       </c>
       <c r="AB96" s="15" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -9928,10 +9930,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C97" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D97">
         <v>26</v>
@@ -10006,7 +10008,7 @@
         <v>200000000000</v>
       </c>
       <c r="AB97" s="15" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -10014,10 +10016,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D98">
         <v>26</v>
@@ -10092,7 +10094,7 @@
         <v>200000000000</v>
       </c>
       <c r="AB98" s="15" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -10100,10 +10102,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D99">
         <v>26</v>
@@ -10178,7 +10180,7 @@
         <v>200000000000</v>
       </c>
       <c r="AB99" s="15" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -10186,10 +10188,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D100">
         <v>26</v>
@@ -10264,7 +10266,7 @@
         <v>200000000000</v>
       </c>
       <c r="AB100" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1EC85-61D9-4416-B3FF-A29463994A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B50B237-855A-426C-99AC-B83C52FF7A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="307">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1157,8 +1157,8 @@
 홍길동에서 획득!</t>
   </si>
   <si>
-    <t>사흉스
-도철 에서 획득!</t>
+    <t>사흉수
+도철에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,6 +1174,42 @@
   <si>
     <t>사흉수
 궁기에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon99</t>
+  </si>
+  <si>
+    <t>weapon100</t>
+  </si>
+  <si>
+    <t>weapon101</t>
+  </si>
+  <si>
+    <t>도적단
+쿠노이치에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+시노비에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+카게에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시노비검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠노이치단검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카게낫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1638,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB97" sqref="AB97"/>
+    <sheetView tabSelected="1" topLeftCell="H93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V100" sqref="V100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10269,6 +10305,264 @@
         <v>293</v>
       </c>
     </row>
+    <row r="101" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D101">
+        <v>26</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>1.2</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>139</v>
+      </c>
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101" s="6">
+        <v>31</v>
+      </c>
+      <c r="U101" s="7">
+        <v>46</v>
+      </c>
+      <c r="V101" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W101" s="7">
+        <v>46</v>
+      </c>
+      <c r="X101" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z101" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA101" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB101" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>299</v>
+      </c>
+      <c r="C102" t="s">
+        <v>304</v>
+      </c>
+      <c r="D102">
+        <v>26</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>1.2</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>140</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102" s="6">
+        <v>32</v>
+      </c>
+      <c r="U102" s="7">
+        <v>46</v>
+      </c>
+      <c r="V102" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W102" s="7">
+        <v>46</v>
+      </c>
+      <c r="X102" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z102" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB102" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>300</v>
+      </c>
+      <c r="C103" t="s">
+        <v>306</v>
+      </c>
+      <c r="D103">
+        <v>26</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>1.2</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>141</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103" s="6">
+        <v>33</v>
+      </c>
+      <c r="U103" s="7">
+        <v>46</v>
+      </c>
+      <c r="V103" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W103" s="7">
+        <v>46</v>
+      </c>
+      <c r="X103" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z103" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA103" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB103" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B50B237-855A-426C-99AC-B83C52FF7A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE36E16-0AE4-4695-86C1-11F2CD0A4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="311">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1211,6 +1211,19 @@
   <si>
     <t>카게낫</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon102</t>
+  </si>
+  <si>
+    <t>weapon103</t>
+  </si>
+  <si>
+    <t>추천용무기21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기22</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V100" sqref="V100"/>
+    <sheetView tabSelected="1" topLeftCell="H95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W105" sqref="W105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10563,6 +10576,178 @@
         <v>303</v>
       </c>
     </row>
+    <row r="104" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D104" s="8">
+        <v>20</v>
+      </c>
+      <c r="E104" s="8">
+        <v>4</v>
+      </c>
+      <c r="F104" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G104" s="8">
+        <v>100</v>
+      </c>
+      <c r="H104" s="8">
+        <v>57</v>
+      </c>
+      <c r="I104" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <v>0</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0</v>
+      </c>
+      <c r="P104" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>0</v>
+      </c>
+      <c r="R104" s="8">
+        <v>0</v>
+      </c>
+      <c r="S104" s="8">
+        <v>0</v>
+      </c>
+      <c r="T104" s="9">
+        <v>0</v>
+      </c>
+      <c r="U104" s="10">
+        <v>0</v>
+      </c>
+      <c r="V104" s="10">
+        <v>0</v>
+      </c>
+      <c r="W104" s="10">
+        <v>0</v>
+      </c>
+      <c r="X104" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z104" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA104" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB104" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D105" s="8">
+        <v>20</v>
+      </c>
+      <c r="E105" s="8">
+        <v>4</v>
+      </c>
+      <c r="F105" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G105" s="8">
+        <v>100</v>
+      </c>
+      <c r="H105" s="8">
+        <v>57</v>
+      </c>
+      <c r="I105" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" s="8">
+        <v>0</v>
+      </c>
+      <c r="K105" s="8">
+        <v>0</v>
+      </c>
+      <c r="L105" s="8">
+        <v>0</v>
+      </c>
+      <c r="M105" s="8">
+        <v>0</v>
+      </c>
+      <c r="N105" s="8">
+        <v>0</v>
+      </c>
+      <c r="O105" s="8">
+        <v>0</v>
+      </c>
+      <c r="P105" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>0</v>
+      </c>
+      <c r="R105" s="8">
+        <v>0</v>
+      </c>
+      <c r="S105" s="8">
+        <v>0</v>
+      </c>
+      <c r="T105" s="9">
+        <v>0</v>
+      </c>
+      <c r="U105" s="10">
+        <v>0</v>
+      </c>
+      <c r="V105" s="10">
+        <v>0</v>
+      </c>
+      <c r="W105" s="10">
+        <v>0</v>
+      </c>
+      <c r="X105" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z105" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA105" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AB105" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE36E16-0AE4-4695-86C1-11F2CD0A4135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77CBB5-32DD-4976-97A5-B05A10045CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="323">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1224,6 +1224,54 @@
   </si>
   <si>
     <t>추천용무기22</t>
+  </si>
+  <si>
+    <t>weapon104</t>
+  </si>
+  <si>
+    <t>weapon105</t>
+  </si>
+  <si>
+    <t>weapon106</t>
+  </si>
+  <si>
+    <t>weapon107</t>
+  </si>
+  <si>
+    <t>항우검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조조도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진시황검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>측천무후우산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+측천무후에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+항우에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+조조에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+진시황에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1687,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H95" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W105" sqref="W105"/>
+    <sheetView tabSelected="1" topLeftCell="J91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC109" sqref="AC109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10748,6 +10796,350 @@
         <v>271</v>
       </c>
     </row>
+    <row r="106" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106">
+        <v>26</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>1.2</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>145</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106" s="6">
+        <v>34</v>
+      </c>
+      <c r="U106" s="7">
+        <v>46</v>
+      </c>
+      <c r="V106" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W106" s="7">
+        <v>46</v>
+      </c>
+      <c r="X106" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z106" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA106" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB106" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" t="s">
+        <v>315</v>
+      </c>
+      <c r="D107">
+        <v>26</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>1.2</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>146</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107" s="6">
+        <v>35</v>
+      </c>
+      <c r="U107" s="7">
+        <v>46</v>
+      </c>
+      <c r="V107" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W107" s="7">
+        <v>46</v>
+      </c>
+      <c r="X107" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z107" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA107" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB107" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" t="s">
+        <v>316</v>
+      </c>
+      <c r="D108">
+        <v>26</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108">
+        <v>1.2</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>147</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108" s="6">
+        <v>36</v>
+      </c>
+      <c r="U108" s="7">
+        <v>46</v>
+      </c>
+      <c r="V108" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W108" s="7">
+        <v>46</v>
+      </c>
+      <c r="X108" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z108" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA108" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB108" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109">
+        <v>26</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>1.2</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>148</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109" s="6">
+        <v>37</v>
+      </c>
+      <c r="U109" s="7">
+        <v>46</v>
+      </c>
+      <c r="V109" s="7">
+        <v>60000</v>
+      </c>
+      <c r="W109" s="7">
+        <v>46</v>
+      </c>
+      <c r="X109" s="7">
+        <v>60000</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z109" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA109" s="14">
+        <v>400000000000</v>
+      </c>
+      <c r="AB109" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F77CBB5-32DD-4976-97A5-B05A10045CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE372859-EB2F-467D-93E4-A1D780BC1A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1238,14 +1238,6 @@
     <t>weapon107</t>
   </si>
   <si>
-    <t>항우검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조조도끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진시황검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1271,6 +1263,14 @@
   <si>
     <t>도적단
 진시황에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항우도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조조검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC109" sqref="AC109"/>
+    <sheetView tabSelected="1" topLeftCell="I91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V107" sqref="V107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10804,7 +10804,7 @@
         <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D106">
         <v>26</v>
@@ -10861,13 +10861,13 @@
         <v>46</v>
       </c>
       <c r="V106" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="W106" s="7">
         <v>46</v>
       </c>
       <c r="X106" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="Y106" t="s">
         <v>187</v>
@@ -10879,7 +10879,7 @@
         <v>400000000000</v>
       </c>
       <c r="AB106" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -10890,7 +10890,7 @@
         <v>312</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D107">
         <v>26</v>
@@ -10947,13 +10947,13 @@
         <v>46</v>
       </c>
       <c r="V107" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="W107" s="7">
         <v>46</v>
       </c>
       <c r="X107" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="Y107" t="s">
         <v>187</v>
@@ -10965,7 +10965,7 @@
         <v>400000000000</v>
       </c>
       <c r="AB107" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -10976,7 +10976,7 @@
         <v>313</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D108">
         <v>26</v>
@@ -11033,13 +11033,13 @@
         <v>46</v>
       </c>
       <c r="V108" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="W108" s="7">
         <v>46</v>
       </c>
       <c r="X108" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="Y108" t="s">
         <v>187</v>
@@ -11051,7 +11051,7 @@
         <v>400000000000</v>
       </c>
       <c r="AB108" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="33" x14ac:dyDescent="0.3">
@@ -11062,7 +11062,7 @@
         <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D109">
         <v>26</v>
@@ -11119,13 +11119,13 @@
         <v>46</v>
       </c>
       <c r="V109" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="W109" s="7">
         <v>46</v>
       </c>
       <c r="X109" s="7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="Y109" t="s">
         <v>187</v>
@@ -11137,7 +11137,7 @@
         <v>400000000000</v>
       </c>
       <c r="AB109" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -11152,8 +11152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DDB2AE-5599-4543-81C7-777464B5EF86}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:O17"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE372859-EB2F-467D-93E4-A1D780BC1A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E2B98-8AB6-43C5-8E9D-8CD54FA58AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="339">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1272,70 @@
   <si>
     <t>조조검</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon109</t>
+  </si>
+  <si>
+    <t>weapon110</t>
+  </si>
+  <si>
+    <t>weapon111</t>
+  </si>
+  <si>
+    <t>weapon112</t>
+  </si>
+  <si>
+    <t>암흑무사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠흑무사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타락무사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈무사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+암흑무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+칠흑무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+타락무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+혼돈무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무명무사의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+무명무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
   </si>
 </sst>
 </file>
@@ -1735,17 +1799,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB109"/>
+  <dimension ref="A1:AC114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V107" sqref="V107"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE107" sqref="AE107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="38.375" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
@@ -1766,7 +1831,7 @@
     <col min="28" max="28" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,8 +1916,11 @@
       <c r="AB1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -1937,8 +2005,11 @@
       <c r="AB2" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -2023,8 +2094,11 @@
       <c r="AB3" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2109,8 +2183,11 @@
       <c r="AB4" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -2195,8 +2272,11 @@
       <c r="AB5" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -2281,8 +2361,11 @@
       <c r="AB6" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -2367,8 +2450,11 @@
       <c r="AB7" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -2453,8 +2539,11 @@
       <c r="AB8" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -2539,8 +2628,11 @@
       <c r="AB9" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -2625,8 +2717,11 @@
       <c r="AB10" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -2711,8 +2806,11 @@
       <c r="AB11" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -2797,8 +2895,11 @@
       <c r="AB12" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -2883,8 +2984,11 @@
       <c r="AB13" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -2969,8 +3073,11 @@
       <c r="AB14" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -3055,8 +3162,11 @@
       <c r="AB15" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -3141,8 +3251,11 @@
       <c r="AB16" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -3227,8 +3340,11 @@
       <c r="AB17" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3313,8 +3429,11 @@
       <c r="AB18" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3399,8 +3518,11 @@
       <c r="AB19" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3485,8 +3607,11 @@
       <c r="AB20" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3571,8 +3696,11 @@
       <c r="AB21" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3657,8 +3785,11 @@
       <c r="AB22" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3743,8 +3874,11 @@
       <c r="AB23" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3829,8 +3963,11 @@
       <c r="AB24" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC24" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3915,8 +4052,11 @@
       <c r="AB25" s="15" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC25" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4001,8 +4141,11 @@
       <c r="AB26" s="15" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC26" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4087,8 +4230,11 @@
       <c r="AB27" s="15" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC27" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4173,8 +4319,11 @@
       <c r="AB28" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC28" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4259,8 +4408,11 @@
       <c r="AB29" s="15" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC29" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4345,8 +4497,11 @@
       <c r="AB30" s="15" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC30" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4431,8 +4586,11 @@
       <c r="AB31" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC31" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4517,8 +4675,11 @@
       <c r="AB32" s="15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC32" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4603,8 +4764,11 @@
       <c r="AB33" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC33" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4689,8 +4853,11 @@
       <c r="AB34" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC34" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4775,8 +4942,11 @@
       <c r="AB35" s="15" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC35" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4861,8 +5031,11 @@
       <c r="AB36" s="15" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC36" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4947,8 +5120,11 @@
       <c r="AB37" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC37" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5033,8 +5209,11 @@
       <c r="AB38" s="15" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC38" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -5119,8 +5298,11 @@
       <c r="AB39" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC39" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -5205,8 +5387,11 @@
       <c r="AB40" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC40" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -5291,8 +5476,11 @@
       <c r="AB41" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -5377,8 +5565,11 @@
       <c r="AB42" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC42" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -5463,8 +5654,11 @@
       <c r="AB43" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC43" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -5549,8 +5743,11 @@
       <c r="AB44" s="8" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC44" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5635,8 +5832,11 @@
       <c r="AB45" s="15" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC45" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5721,8 +5921,11 @@
       <c r="AB46" s="15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC46" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -5807,8 +6010,11 @@
       <c r="AB47" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC47" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -5893,8 +6099,11 @@
       <c r="AB48" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC48" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -5979,8 +6188,11 @@
       <c r="AB49" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC49" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -6065,8 +6277,11 @@
       <c r="AB50" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC50" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -6151,8 +6366,11 @@
       <c r="AB51" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC51" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6237,8 +6455,11 @@
       <c r="AB52" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC52" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6323,8 +6544,11 @@
       <c r="AB53" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC53" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -6409,8 +6633,11 @@
       <c r="AB54" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC54" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -6495,8 +6722,11 @@
       <c r="AB55" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC55" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -6581,8 +6811,11 @@
       <c r="AB56" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC56" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -6667,8 +6900,11 @@
       <c r="AB57" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC57" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -6753,8 +6989,11 @@
       <c r="AB58" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC58" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6839,8 +7078,11 @@
       <c r="AB59" s="15" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC59" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6925,8 +7167,11 @@
       <c r="AB60" s="15" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC60" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7011,8 +7256,11 @@
       <c r="AB61" s="15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC61" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -7097,8 +7345,11 @@
       <c r="AB62" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC62" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -7183,8 +7434,11 @@
       <c r="AB63" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC63" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7269,8 +7523,11 @@
       <c r="AB64" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC64" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7355,8 +7612,11 @@
       <c r="AB65" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC65" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -7441,8 +7701,11 @@
       <c r="AB66" s="15" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC66" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7527,8 +7790,11 @@
       <c r="AB67" s="15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC67" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7613,8 +7879,11 @@
       <c r="AB68" s="15" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC68" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7699,8 +7968,11 @@
       <c r="AB69" s="15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC69" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7785,8 +8057,11 @@
       <c r="AB70" s="15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC70" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7871,8 +8146,11 @@
       <c r="AB71" s="15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC71" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7957,8 +8235,11 @@
       <c r="AB72" s="15" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC72" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -8043,8 +8324,11 @@
       <c r="AB73" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC73" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -8129,8 +8413,11 @@
       <c r="AB74" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC74" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -8215,8 +8502,11 @@
       <c r="AB75" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC75" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -8301,8 +8591,11 @@
       <c r="AB76" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC76" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -8387,8 +8680,11 @@
       <c r="AB77" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC77" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -8473,8 +8769,11 @@
       <c r="AB78" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC78" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -8559,8 +8858,11 @@
       <c r="AB79" s="15" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC79" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -8645,8 +8947,11 @@
       <c r="AB80" s="15" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC80" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -8731,8 +9036,11 @@
       <c r="AB81" s="15" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC81" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -8817,8 +9125,11 @@
       <c r="AB82" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC82" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -8903,8 +9214,11 @@
       <c r="AB83" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC83" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -8989,8 +9303,11 @@
       <c r="AB84" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC84" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -9075,8 +9392,11 @@
       <c r="AB85" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC85" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9161,8 +9481,11 @@
       <c r="AB86" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC86" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9247,8 +9570,11 @@
       <c r="AB87" s="15" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC87" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9333,8 +9659,11 @@
       <c r="AB88" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC88" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9419,8 +9748,11 @@
       <c r="AB89" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC89" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9505,8 +9837,11 @@
       <c r="AB90" s="15" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC90" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9591,8 +9926,11 @@
       <c r="AB91" s="15" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC91" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9677,8 +10015,11 @@
       <c r="AB92" s="16" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC92" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -9763,8 +10104,11 @@
       <c r="AB93" s="15" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC93" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -9849,8 +10193,11 @@
       <c r="AB94" s="15" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="95" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC94" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -9935,8 +10282,11 @@
       <c r="AB95" s="15" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC95" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10021,8 +10371,11 @@
       <c r="AB96" s="15" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC96" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10107,8 +10460,11 @@
       <c r="AB97" s="15" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC97" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10193,8 +10549,11 @@
       <c r="AB98" s="15" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC98" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10279,8 +10638,11 @@
       <c r="AB99" s="15" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC99" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10365,8 +10727,11 @@
       <c r="AB100" s="15" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC100" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10451,8 +10816,11 @@
       <c r="AB101" s="15" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC101" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10537,8 +10905,11 @@
       <c r="AB102" s="15" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC102" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -10623,8 +10994,11 @@
       <c r="AB103" s="15" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC103" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -10709,8 +11083,11 @@
       <c r="AB104" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC104" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -10795,8 +11172,11 @@
       <c r="AB105" s="16" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC105" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -10876,13 +11256,16 @@
         <v>11</v>
       </c>
       <c r="AA106" s="14">
-        <v>400000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="AB106" s="15" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC106" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -10962,13 +11345,16 @@
         <v>11</v>
       </c>
       <c r="AA107" s="14">
-        <v>400000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="AB107" s="15" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC107" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11048,13 +11434,16 @@
         <v>11</v>
       </c>
       <c r="AA108" s="14">
-        <v>400000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="AB108" s="15" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="AC108" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" ht="33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -11134,10 +11523,458 @@
         <v>11</v>
       </c>
       <c r="AA109" s="14">
-        <v>400000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="AB109" s="15" t="s">
         <v>320</v>
+      </c>
+      <c r="AC109" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>1.2</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>153</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110" s="6">
+        <v>38</v>
+      </c>
+      <c r="U110" s="7">
+        <v>46</v>
+      </c>
+      <c r="V110" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W110" s="7">
+        <v>46</v>
+      </c>
+      <c r="X110" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z110" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA110" s="14">
+        <v>800000000000</v>
+      </c>
+      <c r="AB110" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC110" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" t="s">
+        <v>327</v>
+      </c>
+      <c r="D111">
+        <v>27</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>1.2</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>155</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111" s="6">
+        <v>39</v>
+      </c>
+      <c r="U111" s="7">
+        <v>46</v>
+      </c>
+      <c r="V111" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W111" s="7">
+        <v>46</v>
+      </c>
+      <c r="X111" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z111" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA111" s="14">
+        <v>800000000000</v>
+      </c>
+      <c r="AB111" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC111" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" t="s">
+        <v>328</v>
+      </c>
+      <c r="D112">
+        <v>27</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>1.2</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>156</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112" s="6">
+        <v>40</v>
+      </c>
+      <c r="U112" s="7">
+        <v>46</v>
+      </c>
+      <c r="V112" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W112" s="7">
+        <v>46</v>
+      </c>
+      <c r="X112" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z112" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA112" s="14">
+        <v>800000000000</v>
+      </c>
+      <c r="AB112" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="AC112" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113">
+        <v>27</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>1.2</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>157</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113" s="6">
+        <v>41</v>
+      </c>
+      <c r="U113" s="7">
+        <v>46</v>
+      </c>
+      <c r="V113" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W113" s="7">
+        <v>46</v>
+      </c>
+      <c r="X113" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z113" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA113" s="14">
+        <v>800000000000</v>
+      </c>
+      <c r="AB113" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="AC113" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>326</v>
+      </c>
+      <c r="C114" t="s">
+        <v>330</v>
+      </c>
+      <c r="D114">
+        <v>27</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>1.2</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>158</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114" s="6">
+        <v>42</v>
+      </c>
+      <c r="U114" s="7">
+        <v>46</v>
+      </c>
+      <c r="V114" s="7">
+        <v>100000</v>
+      </c>
+      <c r="W114" s="7">
+        <v>46</v>
+      </c>
+      <c r="X114" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z114" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA114" s="14">
+        <v>800000000000</v>
+      </c>
+      <c r="AB114" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC114" s="12">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221E2B98-8AB6-43C5-8E9D-8CD54FA58AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB668A-CC14-425D-8E7F-D91B563CEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -1801,9 +1801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AC114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE107" sqref="AE107"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5299,7 +5299,7 @@
         <v>272</v>
       </c>
       <c r="AC39" s="12">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5388,7 +5388,7 @@
         <v>272</v>
       </c>
       <c r="AC40" s="12">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5477,7 +5477,7 @@
         <v>272</v>
       </c>
       <c r="AC41" s="12">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5566,7 +5566,7 @@
         <v>272</v>
       </c>
       <c r="AC42" s="12">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5655,7 +5655,7 @@
         <v>272</v>
       </c>
       <c r="AC43" s="12">
-        <v>-1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -5744,7 +5744,7 @@
         <v>272</v>
       </c>
       <c r="AC44" s="12">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -5833,7 +5833,7 @@
         <v>235</v>
       </c>
       <c r="AC45" s="12">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -5922,7 +5922,7 @@
         <v>236</v>
       </c>
       <c r="AC46" s="12">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6011,7 +6011,7 @@
         <v>271</v>
       </c>
       <c r="AC47" s="12">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6100,7 +6100,7 @@
         <v>271</v>
       </c>
       <c r="AC48" s="12">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6189,7 +6189,7 @@
         <v>271</v>
       </c>
       <c r="AC49" s="12">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6278,7 +6278,7 @@
         <v>271</v>
       </c>
       <c r="AC50" s="12">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6367,7 +6367,7 @@
         <v>271</v>
       </c>
       <c r="AC51" s="12">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -6456,7 +6456,7 @@
         <v>237</v>
       </c>
       <c r="AC52" s="12">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -6545,7 +6545,7 @@
         <v>238</v>
       </c>
       <c r="AC53" s="12">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6634,7 +6634,7 @@
         <v>271</v>
       </c>
       <c r="AC54" s="12">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6723,7 +6723,7 @@
         <v>271</v>
       </c>
       <c r="AC55" s="12">
-        <v>-1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6812,7 +6812,7 @@
         <v>271</v>
       </c>
       <c r="AC56" s="12">
-        <v>-1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6901,7 +6901,7 @@
         <v>271</v>
       </c>
       <c r="AC57" s="12">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6990,7 +6990,7 @@
         <v>271</v>
       </c>
       <c r="AC58" s="12">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7079,7 +7079,7 @@
         <v>239</v>
       </c>
       <c r="AC59" s="12">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7168,7 +7168,7 @@
         <v>240</v>
       </c>
       <c r="AC60" s="12">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7257,7 +7257,7 @@
         <v>241</v>
       </c>
       <c r="AC61" s="12">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -7346,7 +7346,7 @@
         <v>271</v>
       </c>
       <c r="AC62" s="12">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -7435,7 +7435,7 @@
         <v>271</v>
       </c>
       <c r="AC63" s="12">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -7524,7 +7524,7 @@
         <v>271</v>
       </c>
       <c r="AC64" s="12">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7613,7 +7613,7 @@
         <v>242</v>
       </c>
       <c r="AC65" s="12">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7702,7 +7702,7 @@
         <v>243</v>
       </c>
       <c r="AC66" s="12">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7791,7 +7791,7 @@
         <v>244</v>
       </c>
       <c r="AC67" s="12">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7880,7 +7880,7 @@
         <v>245</v>
       </c>
       <c r="AC68" s="12">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -7969,7 +7969,7 @@
         <v>246</v>
       </c>
       <c r="AC69" s="12">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -8058,7 +8058,7 @@
         <v>247</v>
       </c>
       <c r="AC70" s="12">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -8147,7 +8147,7 @@
         <v>248</v>
       </c>
       <c r="AC71" s="12">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -8236,7 +8236,7 @@
         <v>249</v>
       </c>
       <c r="AC72" s="12">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -8325,7 +8325,7 @@
         <v>271</v>
       </c>
       <c r="AC73" s="12">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -8414,7 +8414,7 @@
         <v>271</v>
       </c>
       <c r="AC74" s="12">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -8503,7 +8503,7 @@
         <v>271</v>
       </c>
       <c r="AC75" s="12">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -8592,7 +8592,7 @@
         <v>271</v>
       </c>
       <c r="AC76" s="12">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -8681,7 +8681,7 @@
         <v>271</v>
       </c>
       <c r="AC77" s="12">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>271</v>
       </c>
       <c r="AC78" s="12">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -8859,7 +8859,7 @@
         <v>250</v>
       </c>
       <c r="AC79" s="12">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -8948,7 +8948,7 @@
         <v>251</v>
       </c>
       <c r="AC80" s="12">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9037,7 +9037,7 @@
         <v>252</v>
       </c>
       <c r="AC81" s="12">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9126,7 +9126,7 @@
         <v>253</v>
       </c>
       <c r="AC82" s="12">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -9215,7 +9215,7 @@
         <v>270</v>
       </c>
       <c r="AC83" s="12">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -9304,7 +9304,7 @@
         <v>271</v>
       </c>
       <c r="AC84" s="12">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -9393,7 +9393,7 @@
         <v>271</v>
       </c>
       <c r="AC85" s="12">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9482,7 +9482,7 @@
         <v>256</v>
       </c>
       <c r="AC86" s="12">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9571,7 +9571,7 @@
         <v>254</v>
       </c>
       <c r="AC87" s="12">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9660,7 +9660,7 @@
         <v>255</v>
       </c>
       <c r="AC88" s="12">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9749,7 +9749,7 @@
         <v>257</v>
       </c>
       <c r="AC89" s="12">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9838,7 +9838,7 @@
         <v>258</v>
       </c>
       <c r="AC90" s="12">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -9927,7 +9927,7 @@
         <v>259</v>
       </c>
       <c r="AC91" s="12">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -10016,7 +10016,7 @@
         <v>269</v>
       </c>
       <c r="AC92" s="12">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10105,7 +10105,7 @@
         <v>294</v>
       </c>
       <c r="AC93" s="12">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10194,7 +10194,7 @@
         <v>295</v>
       </c>
       <c r="AC94" s="12">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10283,7 +10283,7 @@
         <v>296</v>
       </c>
       <c r="AC95" s="12">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10372,7 +10372,7 @@
         <v>297</v>
       </c>
       <c r="AC96" s="12">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10461,7 +10461,7 @@
         <v>290</v>
       </c>
       <c r="AC97" s="12">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10550,7 +10550,7 @@
         <v>291</v>
       </c>
       <c r="AC98" s="12">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10639,7 +10639,7 @@
         <v>292</v>
       </c>
       <c r="AC99" s="12">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10728,7 +10728,7 @@
         <v>293</v>
       </c>
       <c r="AC100" s="12">
-        <v>69</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10817,7 +10817,7 @@
         <v>301</v>
       </c>
       <c r="AC101" s="12">
-        <v>70</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10906,7 +10906,7 @@
         <v>302</v>
       </c>
       <c r="AC102" s="12">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -10995,7 +10995,7 @@
         <v>303</v>
       </c>
       <c r="AC103" s="12">
-        <v>72</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -11084,7 +11084,7 @@
         <v>271</v>
       </c>
       <c r="AC104" s="12">
-        <v>-1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:29" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -11173,7 +11173,7 @@
         <v>271</v>
       </c>
       <c r="AC105" s="12">
-        <v>-1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11262,7 +11262,7 @@
         <v>317</v>
       </c>
       <c r="AC106" s="12">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11351,7 +11351,7 @@
         <v>318</v>
       </c>
       <c r="AC107" s="12">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11440,7 +11440,7 @@
         <v>319</v>
       </c>
       <c r="AC108" s="12">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11529,7 +11529,7 @@
         <v>320</v>
       </c>
       <c r="AC109" s="12">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11618,7 +11618,7 @@
         <v>337</v>
       </c>
       <c r="AC110" s="12">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11707,7 +11707,7 @@
         <v>331</v>
       </c>
       <c r="AC111" s="12">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11796,7 +11796,7 @@
         <v>332</v>
       </c>
       <c r="AC112" s="12">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11885,7 +11885,7 @@
         <v>333</v>
       </c>
       <c r="AC113" s="12">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="33" x14ac:dyDescent="0.3">
@@ -11974,7 +11974,7 @@
         <v>334</v>
       </c>
       <c r="AC114" s="12">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB668A-CC14-425D-8E7F-D91B563CEFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BAE431-17C4-4320-A2CB-3F78538A0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="348">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,6 +1336,42 @@
   </si>
   <si>
     <t>displayOrder</t>
+  </si>
+  <si>
+    <t>weapon113</t>
+  </si>
+  <si>
+    <t>weapon114</t>
+  </si>
+  <si>
+    <t>weapon115</t>
+  </si>
+  <si>
+    <t>무명왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+무명왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+암흑왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+불사왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1799,11 +1835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC114"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA113" sqref="AA113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11977,6 +12013,273 @@
         <v>112</v>
       </c>
     </row>
+    <row r="115" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+      <c r="D115">
+        <v>27</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>1.2</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>163</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115" s="6">
+        <v>43</v>
+      </c>
+      <c r="U115" s="7">
+        <v>46</v>
+      </c>
+      <c r="V115" s="7">
+        <v>120000</v>
+      </c>
+      <c r="W115" s="7">
+        <v>46</v>
+      </c>
+      <c r="X115" s="7">
+        <v>120000</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z115" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA115" s="14">
+        <v>1000000000000</v>
+      </c>
+      <c r="AB115" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC115" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>340</v>
+      </c>
+      <c r="C116" t="s">
+        <v>343</v>
+      </c>
+      <c r="D116">
+        <v>27</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>1.2</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>164</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116" s="6">
+        <v>44</v>
+      </c>
+      <c r="U116" s="7">
+        <v>46</v>
+      </c>
+      <c r="V116" s="7">
+        <v>120000</v>
+      </c>
+      <c r="W116" s="7">
+        <v>46</v>
+      </c>
+      <c r="X116" s="7">
+        <v>120000</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z116" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA116" s="14">
+        <v>1000000000000</v>
+      </c>
+      <c r="AB116" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC116" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117">
+        <v>27</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>1.2</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+      <c r="H117">
+        <v>165</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117" s="6">
+        <v>45</v>
+      </c>
+      <c r="U117" s="7">
+        <v>46</v>
+      </c>
+      <c r="V117" s="7">
+        <v>120000</v>
+      </c>
+      <c r="W117" s="7">
+        <v>46</v>
+      </c>
+      <c r="X117" s="7">
+        <v>120000</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z117" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA117" s="14">
+        <v>1000000000000</v>
+      </c>
+      <c r="AB117" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC117" s="12">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BAE431-17C4-4320-A2CB-3F78538A0521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27946885-CEEE-48BF-8C47-3ADD31692722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="358">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1371,6 +1371,45 @@
   <si>
     <t>심연
 불사왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendView</t>
+  </si>
+  <si>
+    <t>weapon116</t>
+  </si>
+  <si>
+    <t>weapon117</t>
+  </si>
+  <si>
+    <t>weapon118</t>
+  </si>
+  <si>
+    <t>신선계
+방랑신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+광명신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+서월신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방랑신선의 지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명신선의 부채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서월신선의 해금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,11 +1874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA113" sqref="AA113"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6035,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z47" s="14">
         <v>11</v>
@@ -6124,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z48" s="14">
         <v>11</v>
@@ -6213,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z49" s="14">
         <v>11</v>
@@ -6302,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z50" s="14">
         <v>11</v>
@@ -6391,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z51" s="14">
         <v>11</v>
@@ -6658,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z54" s="14">
         <v>11</v>
@@ -6747,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z55" s="14">
         <v>11</v>
@@ -6836,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z56" s="14">
         <v>11</v>
@@ -6925,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z57" s="14">
         <v>11</v>
@@ -7014,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z58" s="14">
         <v>11</v>
@@ -7370,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z62" s="14">
         <v>11</v>
@@ -7459,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z63" s="14">
         <v>11</v>
@@ -7548,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z64" s="14">
         <v>11</v>
@@ -8349,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z73" s="14">
         <v>11</v>
@@ -8438,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z74" s="14">
         <v>11</v>
@@ -8527,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z75" s="14">
         <v>11</v>
@@ -8616,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z76" s="14">
         <v>11</v>
@@ -8705,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z77" s="14">
         <v>11</v>
@@ -8794,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z78" s="14">
         <v>11</v>
@@ -9328,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z84" s="14">
         <v>11</v>
@@ -9417,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z85" s="14">
         <v>11</v>
@@ -11108,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z104" s="14">
         <v>11</v>
@@ -11197,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="11" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="Z105" s="14">
         <v>11</v>
@@ -12278,6 +12317,273 @@
       </c>
       <c r="AC117" s="12">
         <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" t="s">
+        <v>355</v>
+      </c>
+      <c r="D118">
+        <v>28</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>1.2</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+      <c r="H118">
+        <v>169</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118" s="6">
+        <v>46</v>
+      </c>
+      <c r="U118" s="7">
+        <v>46</v>
+      </c>
+      <c r="V118" s="7">
+        <v>140000</v>
+      </c>
+      <c r="W118" s="7">
+        <v>46</v>
+      </c>
+      <c r="X118" s="7">
+        <v>140000</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z118" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA118" s="14">
+        <v>1200000000000</v>
+      </c>
+      <c r="AB118" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC118" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>350</v>
+      </c>
+      <c r="C119" t="s">
+        <v>356</v>
+      </c>
+      <c r="D119">
+        <v>28</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>1.2</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <v>170</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119" s="6">
+        <v>47</v>
+      </c>
+      <c r="U119" s="7">
+        <v>46</v>
+      </c>
+      <c r="V119" s="7">
+        <v>140000</v>
+      </c>
+      <c r="W119" s="7">
+        <v>46</v>
+      </c>
+      <c r="X119" s="7">
+        <v>140000</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z119" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA119" s="14">
+        <v>1200000000000</v>
+      </c>
+      <c r="AB119" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC119" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>351</v>
+      </c>
+      <c r="C120" t="s">
+        <v>357</v>
+      </c>
+      <c r="D120">
+        <v>28</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>1.2</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+      <c r="H120">
+        <v>171</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120" s="6">
+        <v>48</v>
+      </c>
+      <c r="U120" s="7">
+        <v>46</v>
+      </c>
+      <c r="V120" s="7">
+        <v>140000</v>
+      </c>
+      <c r="W120" s="7">
+        <v>46</v>
+      </c>
+      <c r="X120" s="7">
+        <v>140000</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z120" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA120" s="14">
+        <v>1200000000000</v>
+      </c>
+      <c r="AB120" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC120" s="12">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27946885-CEEE-48BF-8C47-3ADD31692722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F559F2-2716-4044-9EE2-74AD455F5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="367">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1410,6 +1410,42 @@
   </si>
   <si>
     <t>서월신선의 해금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon119</t>
+  </si>
+  <si>
+    <t>weapon120</t>
+  </si>
+  <si>
+    <t>weapon121</t>
+  </si>
+  <si>
+    <t>신선계
+화영신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+천명신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+암영천선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화영신선의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천명신선의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암영천선의 검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,11 +1910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12586,6 +12622,273 @@
         <v>118</v>
       </c>
     </row>
+    <row r="121" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121">
+        <v>28</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>1.2</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+      <c r="H121">
+        <v>175</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121" s="6">
+        <v>49</v>
+      </c>
+      <c r="U121" s="7">
+        <v>46</v>
+      </c>
+      <c r="V121" s="7">
+        <v>160000</v>
+      </c>
+      <c r="W121" s="7">
+        <v>46</v>
+      </c>
+      <c r="X121" s="7">
+        <v>160000</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z121" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA121" s="14">
+        <v>1400000000000</v>
+      </c>
+      <c r="AB121" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC121" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122">
+        <v>28</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>1.2</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+      <c r="H122">
+        <v>176</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122" s="6">
+        <v>50</v>
+      </c>
+      <c r="U122" s="7">
+        <v>46</v>
+      </c>
+      <c r="V122" s="7">
+        <v>160000</v>
+      </c>
+      <c r="W122" s="7">
+        <v>46</v>
+      </c>
+      <c r="X122" s="7">
+        <v>160000</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z122" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA122" s="14">
+        <v>1400000000000</v>
+      </c>
+      <c r="AB122" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC122" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>360</v>
+      </c>
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+      <c r="D123">
+        <v>28</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>1.2</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <v>179</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123" s="6">
+        <v>51</v>
+      </c>
+      <c r="U123" s="7">
+        <v>46</v>
+      </c>
+      <c r="V123" s="7">
+        <v>160000</v>
+      </c>
+      <c r="W123" s="7">
+        <v>46</v>
+      </c>
+      <c r="X123" s="7">
+        <v>160000</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z123" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA123" s="14">
+        <v>1400000000000</v>
+      </c>
+      <c r="AB123" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC123" s="12">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F559F2-2716-4044-9EE2-74AD455F5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332274E5-9874-42B5-B80D-1354C302C5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="376">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1446,6 +1446,42 @@
   </si>
   <si>
     <t>암영천선의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon122</t>
+  </si>
+  <si>
+    <t>weapon123</t>
+  </si>
+  <si>
+    <t>weapon124</t>
+  </si>
+  <si>
+    <t>혈향천선의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍랑천선의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설화천선의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+혈향천선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+홍랑천선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+설화천선에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1910,11 +1946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC123"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB124" sqref="AB124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12889,6 +12925,273 @@
         <v>121</v>
       </c>
     </row>
+    <row r="124" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>367</v>
+      </c>
+      <c r="C124" t="s">
+        <v>370</v>
+      </c>
+      <c r="D124">
+        <v>28</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>1.2</v>
+      </c>
+      <c r="G124">
+        <v>100</v>
+      </c>
+      <c r="H124">
+        <v>181</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124" s="6">
+        <v>52</v>
+      </c>
+      <c r="U124" s="7">
+        <v>46</v>
+      </c>
+      <c r="V124" s="7">
+        <v>180000</v>
+      </c>
+      <c r="W124" s="7">
+        <v>46</v>
+      </c>
+      <c r="X124" s="7">
+        <v>180000</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z124" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA124" s="14">
+        <v>1600000000000</v>
+      </c>
+      <c r="AB124" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC124" s="12">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>368</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125">
+        <v>28</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>1.2</v>
+      </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+      <c r="H125">
+        <v>182</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125" s="6">
+        <v>53</v>
+      </c>
+      <c r="U125" s="7">
+        <v>46</v>
+      </c>
+      <c r="V125" s="7">
+        <v>180000</v>
+      </c>
+      <c r="W125" s="7">
+        <v>46</v>
+      </c>
+      <c r="X125" s="7">
+        <v>180000</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z125" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA125" s="14">
+        <v>1600000000000</v>
+      </c>
+      <c r="AB125" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC125" s="12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" t="s">
+        <v>372</v>
+      </c>
+      <c r="D126">
+        <v>28</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>1.2</v>
+      </c>
+      <c r="G126">
+        <v>100</v>
+      </c>
+      <c r="H126">
+        <v>183</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126" s="6">
+        <v>54</v>
+      </c>
+      <c r="U126" s="7">
+        <v>46</v>
+      </c>
+      <c r="V126" s="7">
+        <v>180000</v>
+      </c>
+      <c r="W126" s="7">
+        <v>46</v>
+      </c>
+      <c r="X126" s="7">
+        <v>180000</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z126" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA126" s="14">
+        <v>1600000000000</v>
+      </c>
+      <c r="AB126" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC126" s="12">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332274E5-9874-42B5-B80D-1354C302C5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73563427-3DFF-4ADC-BB89-E31810E673DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="382">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,6 +1482,30 @@
   <si>
     <t>신선계
 설화천선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon125</t>
+  </si>
+  <si>
+    <t>weapon126</t>
+  </si>
+  <si>
+    <t>음혼마군의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀왕의 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+음혼마군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+귀왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1946,11 +1970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB124" sqref="AB124"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB128" sqref="AB128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13192,6 +13216,184 @@
         <v>124</v>
       </c>
     </row>
+    <row r="127" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127">
+        <v>29</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>1.2</v>
+      </c>
+      <c r="G127">
+        <v>100</v>
+      </c>
+      <c r="H127">
+        <v>187</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127" s="6">
+        <v>55</v>
+      </c>
+      <c r="U127" s="7">
+        <v>46</v>
+      </c>
+      <c r="V127" s="7">
+        <v>200000</v>
+      </c>
+      <c r="W127" s="7">
+        <v>46</v>
+      </c>
+      <c r="X127" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z127" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA127" s="14">
+        <v>1800000000000</v>
+      </c>
+      <c r="AB127" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC127" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" ht="33" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>377</v>
+      </c>
+      <c r="C128" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128">
+        <v>29</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <v>1.2</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+      <c r="H128">
+        <v>188</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128" s="6">
+        <v>56</v>
+      </c>
+      <c r="U128" s="7">
+        <v>46</v>
+      </c>
+      <c r="V128" s="7">
+        <v>200000</v>
+      </c>
+      <c r="W128" s="7">
+        <v>46</v>
+      </c>
+      <c r="X128" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z128" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA128" s="14">
+        <v>1800000000000</v>
+      </c>
+      <c r="AB128" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC128" s="12">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
